--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossi\source\repos\yossiii050\FeatherFriend\DataBased\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F41CB74-C14B-4CED-A43D-D5A657904A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D823C70C-DEAB-4A2B-BE25-DE8CEEA4E1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="4965" windowWidth="18855" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>CageID</t>
   </si>
@@ -58,6 +58,48 @@
   </si>
   <si>
     <t>50A</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>15R</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>343f</t>
+  </si>
+  <si>
+    <t>564g</t>
+  </si>
+  <si>
+    <t>fgf</t>
+  </si>
+  <si>
+    <t>5g5</t>
+  </si>
+  <si>
+    <t>de5</t>
+  </si>
+  <si>
+    <t>jn9</t>
+  </si>
+  <si>
+    <t>25A</t>
+  </si>
+  <si>
+    <t>18A</t>
+  </si>
+  <si>
+    <t>19A</t>
+  </si>
+  <si>
+    <t>191A</t>
   </si>
 </sst>
 </file>
@@ -375,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -417,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -434,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -451,7 +493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -468,7 +510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>444</v>
       </c>
@@ -483,6 +525,431 @@
       </c>
       <c r="E6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1111</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>126</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>223</v>
+      </c>
+      <c r="C11">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>444</v>
+      </c>
+      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>333</v>
+      </c>
+      <c r="D14">
+        <v>333</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>565</v>
+      </c>
+      <c r="B15">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>223</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>111</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5555</v>
+      </c>
+      <c r="B18">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>545</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>333</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>222</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>2233</v>
+      </c>
+      <c r="D26">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>656</v>
+      </c>
+      <c r="B27">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D823C70C-DEAB-4A2B-BE25-DE8CEEA4E1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A278F-6DBC-4253-9DE3-3F9FECE0979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="4965" windowWidth="18855" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>CageID</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>191A</t>
+  </si>
+  <si>
+    <t>22A</t>
   </si>
 </sst>
 </file>
@@ -417,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -459,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -476,7 +479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -493,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -510,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>444</v>
       </c>
@@ -527,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -544,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
@@ -561,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1111</v>
       </c>
@@ -578,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -595,7 +598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -612,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>444</v>
       </c>
@@ -629,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -646,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>33</v>
       </c>
@@ -663,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>565</v>
       </c>
@@ -680,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>223</v>
       </c>
@@ -697,7 +700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -714,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5555</v>
       </c>
@@ -731,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>545</v>
       </c>
@@ -748,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -765,7 +768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -782,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -799,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -816,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -833,7 +836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -850,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -867,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>656</v>
       </c>
@@ -884,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -901,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -918,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -935,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -949,6 +952,23 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
         <v>11</v>
       </c>
     </row>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A278F-6DBC-4253-9DE3-3F9FECE0979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE638D2-CDD9-4816-868B-61C62DDF7CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>CageID</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -972,6 +972,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>616</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE638D2-CDD9-4816-868B-61C62DDF7CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A278F-6DBC-4253-9DE3-3F9FECE0979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>CageID</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -972,23 +972,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>616</v>
-      </c>
-      <c r="B33">
-        <v>100</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE638D2-CDD9-4816-868B-61C62DDF7CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50753D6D-CFA7-4C82-A474-D148CED1EA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11268" yWindow="996" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>CageID</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>22A</t>
+  </si>
+  <si>
+    <t>453A</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -989,6 +992,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A278F-6DBC-4253-9DE3-3F9FECE0979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF07CA42-A830-4989-B5C4-523D78286BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>CageID</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -467,16 +467,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,16 +501,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,16 +603,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -970,6 +970,23 @@
       </c>
       <c r="E32" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>616</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A75BC6A-55B1-4438-B72C-BA8BB98D8E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87392901-43C1-40B6-B207-4E17EBE4496F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1470" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>CageID</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>NewCage001</t>
+  </si>
+  <si>
+    <t>85B</t>
+  </si>
+  <si>
+    <t>942B</t>
   </si>
 </sst>
 </file>
@@ -438,18 +444,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -483,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -500,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -517,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -534,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>444</v>
       </c>
@@ -551,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -568,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -585,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1111</v>
       </c>
@@ -602,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -619,7 +625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -636,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>444</v>
       </c>
@@ -653,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -670,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>33</v>
       </c>
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>565</v>
       </c>
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>223</v>
       </c>
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -738,7 +744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5555</v>
       </c>
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>545</v>
       </c>
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,7 +812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -823,7 +829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -840,7 +846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -857,7 +863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -874,7 +880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -891,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>656</v>
       </c>
@@ -908,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -925,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -942,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -959,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -976,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -993,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>616</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1042,6 +1048,40 @@
       </c>
       <c r="E35" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>320</v>
+      </c>
+      <c r="C36">
+        <v>320</v>
+      </c>
+      <c r="D36">
+        <v>320</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>250</v>
+      </c>
+      <c r="C37">
+        <v>250</v>
+      </c>
+      <c r="D37">
+        <v>250</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87392901-43C1-40B6-B207-4E17EBE4496F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D2AAB8-C355-4D02-B3C6-E97053849CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="336" windowWidth="11976" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>CageID</t>
   </si>
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -1084,6 +1084,57 @@
         <v>6</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>111</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5050</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9090</v>
+      </c>
+      <c r="B40">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87392901-43C1-40B6-B207-4E17EBE4496F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B44FD4-7639-4614-9140-11EE483EB49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>CageID</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>942B</t>
+  </si>
+  <si>
+    <t>sds3</t>
+  </si>
+  <si>
+    <t>12AA</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -1084,6 +1090,40 @@
         <v>6</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>3.5</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>2.9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>22.555</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D2AAB8-C355-4D02-B3C6-E97053849CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B44FD4-7639-4614-9140-11EE483EB49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="336" windowWidth="11976" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>CageID</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>942B</t>
+  </si>
+  <si>
+    <t>sds3</t>
+  </si>
+  <si>
+    <t>12AA</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -1085,54 +1091,37 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>111</v>
+      <c r="A38" t="s">
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>3.5</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>2.9</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>5050</v>
+      <c r="A39" t="s">
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>22.555</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>9090</v>
-      </c>
-      <c r="B40">
-        <v>90</v>
-      </c>
-      <c r="C40">
-        <v>90</v>
-      </c>
-      <c r="D40">
-        <v>90</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B44FD4-7639-4614-9140-11EE483EB49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97CA6E1-F41D-41FB-AD5A-9E82AF433D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="1305" windowWidth="30255" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>CageID</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>12AA</t>
+  </si>
+  <si>
+    <t>423FF</t>
+  </si>
+  <si>
+    <t>187A</t>
   </si>
 </sst>
 </file>
@@ -450,18 +456,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -512,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -526,10 +535,10 @@
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -546,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>444</v>
       </c>
@@ -563,7 +572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -580,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -594,10 +603,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1111</v>
       </c>
@@ -614,7 +623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -631,7 +640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -648,7 +657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>444</v>
       </c>
@@ -665,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -682,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>33</v>
       </c>
@@ -699,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>565</v>
       </c>
@@ -716,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>223</v>
       </c>
@@ -733,7 +742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -750,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5555</v>
       </c>
@@ -767,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>545</v>
       </c>
@@ -784,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -801,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -818,7 +827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -835,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -852,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -869,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,7 +895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -903,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>656</v>
       </c>
@@ -920,7 +929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -937,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -954,7 +963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -971,7 +980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -988,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>616</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1039,89 +1048,140 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>320</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>320</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>320</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>250</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>250</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>250</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>3.5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>25</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>2.9</v>
       </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>22.555</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>25</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>12</v>
       </c>
-      <c r="E39" t="s">
-        <v>11</v>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>30</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D2AAB8-C355-4D02-B3C6-E97053849CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CBA8F1-668E-4867-8E4A-BC7CA68B7A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72" yWindow="336" windowWidth="11976" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>CageID</t>
   </si>
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -1135,6 +1135,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8080</v>
+      </c>
+      <c r="B41">
+        <v>80</v>
+      </c>
+      <c r="C41">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97CA6E1-F41D-41FB-AD5A-9E82AF433D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27BCB5-DCC8-4BEB-80AF-7344DCE15E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1305" windowWidth="30255" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>CageID</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>187A</t>
+  </si>
+  <si>
+    <t>52524A</t>
   </si>
 </sst>
 </file>
@@ -456,21 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -521,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -538,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -555,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>444</v>
       </c>
@@ -572,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -589,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -606,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1111</v>
       </c>
@@ -623,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -640,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>444</v>
       </c>
@@ -674,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -691,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>33</v>
       </c>
@@ -708,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>565</v>
       </c>
@@ -725,7 +728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>223</v>
       </c>
@@ -742,7 +745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -759,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5555</v>
       </c>
@@ -776,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>545</v>
       </c>
@@ -793,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -827,7 +830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -844,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -861,7 +864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -878,7 +881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,7 +898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -912,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>656</v>
       </c>
@@ -929,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -946,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -963,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -980,7 +983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>616</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1182,6 +1185,23 @@
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1">
+        <v>250</v>
+      </c>
+      <c r="C43" s="1">
+        <v>250</v>
+      </c>
+      <c r="D43" s="1">
+        <v>250</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B44FD4-7639-4614-9140-11EE483EB49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27BCB5-DCC8-4BEB-80AF-7344DCE15E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>CageID</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>12AA</t>
+  </si>
+  <si>
+    <t>423FF</t>
+  </si>
+  <si>
+    <t>187A</t>
+  </si>
+  <si>
+    <t>52524A</t>
   </si>
 </sst>
 </file>
@@ -450,15 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,7 +538,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,7 +606,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,87 +1052,155 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>320</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>320</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>320</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>250</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>250</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>250</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>3.5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>25</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>2.9</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>22.555</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>25</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>12</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>30</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1">
+        <v>250</v>
+      </c>
+      <c r="C43" s="1">
+        <v>250</v>
+      </c>
+      <c r="D43" s="1">
+        <v>250</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27BCB5-DCC8-4BEB-80AF-7344DCE15E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFA3F9A-546C-4306-9985-EFE36BD4588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,16 +563,16 @@
         <v>444</v>
       </c>
       <c r="B6" s="1">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27BCB5-DCC8-4BEB-80AF-7344DCE15E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF74D46-BDD2-4CE5-93CB-1E29506E16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>CageID</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -1204,6 +1204,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>250</v>
+      </c>
+      <c r="B44" s="1">
+        <v>22.55</v>
+      </c>
+      <c r="C44" s="1">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFA3F9A-546C-4306-9985-EFE36BD4588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87F1083-6D8F-413E-A971-A8E670F34347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="0" windowWidth="11520" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="336" windowWidth="11976" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>CageID</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -1204,6 +1204,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF74D46-BDD2-4CE5-93CB-1E29506E16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8664D07E-A869-4552-901B-E1A31EC7ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="1305" windowWidth="30255" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>CageID</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>52524A</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
@@ -459,21 +462,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -507,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,16 +518,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>502</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -541,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -558,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>444</v>
       </c>
@@ -575,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -592,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -609,7 +612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1111</v>
       </c>
@@ -626,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -660,7 +663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>444</v>
       </c>
@@ -677,7 +680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -694,7 +697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>33</v>
       </c>
@@ -711,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>565</v>
       </c>
@@ -728,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>223</v>
       </c>
@@ -745,7 +748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -762,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5555</v>
       </c>
@@ -779,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>545</v>
       </c>
@@ -796,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -813,7 +816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -830,7 +833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -847,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -864,7 +867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -881,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -898,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -915,7 +918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>656</v>
       </c>
@@ -932,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -949,7 +952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -966,7 +969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -983,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>616</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>250</v>
       </c>
@@ -1218,6 +1221,40 @@
         <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>455</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/DataBased/CageDB.xlsx
+++ b/DataBased/CageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8664D07E-A869-4552-901B-E1A31EC7ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB09FA83-2B87-492F-905D-AB79BC6D3233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3765" yWindow="1305" windowWidth="30255" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>CageID</t>
   </si>
@@ -462,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>222</v>
+        <v>12.5</v>
       </c>
       <c r="C2" s="1">
-        <v>150</v>
+        <v>423</v>
       </c>
       <c r="D2" s="1">
-        <v>50</v>
+        <v>82.5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>252</v>
@@ -524,7 +524,7 @@
         <v>502</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,6 +1255,23 @@
         <v>44</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>432</v>
+      </c>
+      <c r="B47" s="1">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1">
+        <v>33</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
